--- a/online_retail/WEO_Data.xlsx
+++ b/online_retail/WEO_Data.xlsx
@@ -9,7 +9,10 @@
   <sheets>
     <sheet name="GDP_WEO_Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GDP_WEO_Data!$A$1:$N$196</definedName>
+  </definedNames>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -502,9 +505,6 @@
     <t>Iraq</t>
   </si>
   <si>
-    <t>Ireland</t>
-  </si>
-  <si>
     <t>Israel</t>
   </si>
   <si>
@@ -1240,9 +1240,6 @@
     <t>3,356.794</t>
   </si>
   <si>
-    <t>United States</t>
-  </si>
-  <si>
     <t>20,611.875</t>
   </si>
   <si>
@@ -1310,6 +1307,12 @@
   </si>
   <si>
     <t>International Monetary Fund, World Economic Outlook Database, October 2020</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>EIRE</t>
   </si>
 </sst>
 </file>
@@ -2152,9 +2155,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N198"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="57.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
@@ -5722,7 +5730,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" t="s">
-        <v>162</v>
+        <v>431</v>
       </c>
       <c r="B82" t="s">
         <v>7</v>
@@ -5766,7 +5774,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
@@ -5810,43 +5818,43 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" t="s">
+        <v>163</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" t="s">
         <v>164</v>
       </c>
-      <c r="B84" t="s">
-        <v>7</v>
-      </c>
-      <c r="C84" t="s">
-        <v>8</v>
-      </c>
-      <c r="D84" t="s">
-        <v>9</v>
-      </c>
-      <c r="E84" t="s">
-        <v>10</v>
-      </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>165</v>
       </c>
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>166</v>
       </c>
-      <c r="H84" t="s">
+      <c r="I84" t="s">
         <v>167</v>
       </c>
-      <c r="I84" t="s">
+      <c r="J84" t="s">
         <v>168</v>
       </c>
-      <c r="J84" t="s">
+      <c r="K84" t="s">
         <v>169</v>
       </c>
-      <c r="K84" t="s">
+      <c r="L84" t="s">
         <v>170</v>
       </c>
-      <c r="L84" t="s">
+      <c r="M84" t="s">
         <v>171</v>
-      </c>
-      <c r="M84" t="s">
-        <v>172</v>
       </c>
       <c r="N84">
         <v>2019</v>
@@ -5854,7 +5862,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
@@ -5898,43 +5906,43 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" t="s">
+        <v>173</v>
+      </c>
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" t="s">
         <v>174</v>
       </c>
-      <c r="B86" t="s">
-        <v>7</v>
-      </c>
-      <c r="C86" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86" t="s">
-        <v>9</v>
-      </c>
-      <c r="E86" t="s">
-        <v>10</v>
-      </c>
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>175</v>
       </c>
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>176</v>
       </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
         <v>177</v>
       </c>
-      <c r="I86" t="s">
+      <c r="J86" t="s">
         <v>178</v>
       </c>
-      <c r="J86" t="s">
+      <c r="K86" t="s">
         <v>179</v>
       </c>
-      <c r="K86" t="s">
+      <c r="L86" t="s">
         <v>180</v>
       </c>
-      <c r="L86" t="s">
+      <c r="M86" t="s">
         <v>181</v>
-      </c>
-      <c r="M86" t="s">
-        <v>182</v>
       </c>
       <c r="N86">
         <v>2019</v>
@@ -5942,7 +5950,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
@@ -5986,7 +5994,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B88" t="s">
         <v>7</v>
@@ -6030,7 +6038,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B89" t="s">
         <v>7</v>
@@ -6074,43 +6082,43 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" t="s">
+        <v>185</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90" t="s">
         <v>186</v>
       </c>
-      <c r="B90" t="s">
-        <v>7</v>
-      </c>
-      <c r="C90" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90" t="s">
-        <v>9</v>
-      </c>
-      <c r="E90" t="s">
-        <v>10</v>
-      </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>187</v>
       </c>
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>188</v>
       </c>
-      <c r="H90" t="s">
+      <c r="I90" t="s">
         <v>189</v>
       </c>
-      <c r="I90" t="s">
+      <c r="J90" t="s">
         <v>190</v>
       </c>
-      <c r="J90" t="s">
+      <c r="K90" t="s">
         <v>191</v>
       </c>
-      <c r="K90" t="s">
+      <c r="L90" t="s">
         <v>192</v>
       </c>
-      <c r="L90" t="s">
+      <c r="M90" t="s">
         <v>193</v>
-      </c>
-      <c r="M90" t="s">
-        <v>194</v>
       </c>
       <c r="N90">
         <v>2017</v>
@@ -6118,43 +6126,43 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" t="s">
+        <v>194</v>
+      </c>
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91" t="s">
         <v>195</v>
       </c>
-      <c r="B91" t="s">
-        <v>7</v>
-      </c>
-      <c r="C91" t="s">
-        <v>8</v>
-      </c>
-      <c r="D91" t="s">
-        <v>9</v>
-      </c>
-      <c r="E91" t="s">
-        <v>10</v>
-      </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>196</v>
       </c>
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>197</v>
       </c>
-      <c r="H91" t="s">
+      <c r="I91" t="s">
         <v>198</v>
       </c>
-      <c r="I91" t="s">
+      <c r="J91" t="s">
         <v>199</v>
       </c>
-      <c r="J91" t="s">
+      <c r="K91" t="s">
         <v>200</v>
       </c>
-      <c r="K91" t="s">
+      <c r="L91" t="s">
         <v>201</v>
       </c>
-      <c r="L91" t="s">
+      <c r="M91" t="s">
         <v>202</v>
-      </c>
-      <c r="M91" t="s">
-        <v>203</v>
       </c>
       <c r="N91">
         <v>2019</v>
@@ -6162,7 +6170,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B92" t="s">
         <v>7</v>
@@ -6206,7 +6214,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B93" t="s">
         <v>7</v>
@@ -6250,7 +6258,7 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B94" t="s">
         <v>7</v>
@@ -6294,7 +6302,7 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B95" t="s">
         <v>7</v>
@@ -6338,7 +6346,7 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B96" t="s">
         <v>7</v>
@@ -6382,7 +6390,7 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B97" t="s">
         <v>7</v>
@@ -6406,19 +6414,19 @@
         <v>18734</v>
       </c>
       <c r="I97" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J97" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K97" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L97" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M97" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N97">
         <v>2018</v>
@@ -6426,7 +6434,7 @@
     </row>
     <row r="98" spans="1:14">
       <c r="A98" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B98" t="s">
         <v>7</v>
@@ -6470,7 +6478,7 @@
     </row>
     <row r="99" spans="1:14">
       <c r="A99" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B99" t="s">
         <v>7</v>
@@ -6514,7 +6522,7 @@
     </row>
     <row r="100" spans="1:14">
       <c r="A100" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B100" t="s">
         <v>7</v>
@@ -6558,7 +6566,7 @@
     </row>
     <row r="101" spans="1:14">
       <c r="A101" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B101" t="s">
         <v>7</v>
@@ -6602,7 +6610,7 @@
     </row>
     <row r="102" spans="1:14">
       <c r="A102" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B102" t="s">
         <v>7</v>
@@ -6646,7 +6654,7 @@
     </row>
     <row r="103" spans="1:14">
       <c r="A103" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B103" t="s">
         <v>7</v>
@@ -6690,7 +6698,7 @@
     </row>
     <row r="104" spans="1:14">
       <c r="A104" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B104" t="s">
         <v>7</v>
@@ -6734,7 +6742,7 @@
     </row>
     <row r="105" spans="1:14">
       <c r="A105" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B105" t="s">
         <v>7</v>
@@ -6778,7 +6786,7 @@
     </row>
     <row r="106" spans="1:14">
       <c r="A106" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B106" t="s">
         <v>7</v>
@@ -6822,7 +6830,7 @@
     </row>
     <row r="107" spans="1:14">
       <c r="A107" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
@@ -6866,7 +6874,7 @@
     </row>
     <row r="108" spans="1:14">
       <c r="A108" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B108" t="s">
         <v>7</v>
@@ -6910,7 +6918,7 @@
     </row>
     <row r="109" spans="1:14">
       <c r="A109" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B109" t="s">
         <v>7</v>
@@ -6954,43 +6962,43 @@
     </row>
     <row r="110" spans="1:14">
       <c r="A110" t="s">
+        <v>222</v>
+      </c>
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" t="s">
+        <v>9</v>
+      </c>
+      <c r="E110" t="s">
+        <v>10</v>
+      </c>
+      <c r="F110" t="s">
         <v>223</v>
       </c>
-      <c r="B110" t="s">
-        <v>7</v>
-      </c>
-      <c r="C110" t="s">
-        <v>8</v>
-      </c>
-      <c r="D110" t="s">
-        <v>9</v>
-      </c>
-      <c r="E110" t="s">
-        <v>10</v>
-      </c>
-      <c r="F110" t="s">
+      <c r="G110" t="s">
+        <v>191</v>
+      </c>
+      <c r="H110" t="s">
         <v>224</v>
       </c>
-      <c r="G110" t="s">
-        <v>192</v>
-      </c>
-      <c r="H110" t="s">
+      <c r="I110" t="s">
         <v>225</v>
       </c>
-      <c r="I110" t="s">
+      <c r="J110" t="s">
         <v>226</v>
       </c>
-      <c r="J110" t="s">
+      <c r="K110" t="s">
         <v>227</v>
       </c>
-      <c r="K110" t="s">
+      <c r="L110" t="s">
         <v>228</v>
       </c>
-      <c r="L110" t="s">
+      <c r="M110" t="s">
         <v>229</v>
-      </c>
-      <c r="M110" t="s">
-        <v>230</v>
       </c>
       <c r="N110">
         <v>2018</v>
@@ -6998,7 +7006,7 @@
     </row>
     <row r="111" spans="1:14">
       <c r="A111" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
@@ -7042,7 +7050,7 @@
     </row>
     <row r="112" spans="1:14">
       <c r="A112" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B112" t="s">
         <v>7</v>
@@ -7086,43 +7094,43 @@
     </row>
     <row r="113" spans="1:14">
       <c r="A113" t="s">
+        <v>232</v>
+      </c>
+      <c r="B113" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" t="s">
+        <v>9</v>
+      </c>
+      <c r="E113" t="s">
+        <v>10</v>
+      </c>
+      <c r="F113" t="s">
         <v>233</v>
       </c>
-      <c r="B113" t="s">
-        <v>7</v>
-      </c>
-      <c r="C113" t="s">
-        <v>8</v>
-      </c>
-      <c r="D113" t="s">
-        <v>9</v>
-      </c>
-      <c r="E113" t="s">
-        <v>10</v>
-      </c>
-      <c r="F113" t="s">
+      <c r="G113" t="s">
         <v>234</v>
       </c>
-      <c r="G113" t="s">
+      <c r="H113" t="s">
         <v>235</v>
       </c>
-      <c r="H113" t="s">
+      <c r="I113" t="s">
         <v>236</v>
       </c>
-      <c r="I113" t="s">
+      <c r="J113" t="s">
         <v>237</v>
       </c>
-      <c r="J113" t="s">
+      <c r="K113" t="s">
         <v>238</v>
       </c>
-      <c r="K113" t="s">
+      <c r="L113" t="s">
         <v>239</v>
       </c>
-      <c r="L113" t="s">
+      <c r="M113" t="s">
         <v>240</v>
-      </c>
-      <c r="M113" t="s">
-        <v>241</v>
       </c>
       <c r="N113">
         <v>2019</v>
@@ -7130,43 +7138,43 @@
     </row>
     <row r="114" spans="1:14">
       <c r="A114" t="s">
+        <v>241</v>
+      </c>
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114" t="s">
+        <v>10</v>
+      </c>
+      <c r="F114" t="s">
         <v>242</v>
       </c>
-      <c r="B114" t="s">
-        <v>7</v>
-      </c>
-      <c r="C114" t="s">
-        <v>8</v>
-      </c>
-      <c r="D114" t="s">
-        <v>9</v>
-      </c>
-      <c r="E114" t="s">
-        <v>10</v>
-      </c>
-      <c r="F114" t="s">
+      <c r="G114" t="s">
         <v>243</v>
       </c>
-      <c r="G114" t="s">
+      <c r="H114" t="s">
         <v>244</v>
       </c>
-      <c r="H114" t="s">
+      <c r="I114" t="s">
         <v>245</v>
       </c>
-      <c r="I114" t="s">
+      <c r="J114" t="s">
         <v>246</v>
       </c>
-      <c r="J114" t="s">
+      <c r="K114" t="s">
         <v>247</v>
       </c>
-      <c r="K114" t="s">
+      <c r="L114" t="s">
         <v>248</v>
       </c>
-      <c r="L114" t="s">
+      <c r="M114" t="s">
         <v>249</v>
-      </c>
-      <c r="M114" t="s">
-        <v>250</v>
       </c>
       <c r="N114">
         <v>2018</v>
@@ -7174,7 +7182,7 @@
     </row>
     <row r="115" spans="1:14">
       <c r="A115" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B115" t="s">
         <v>7</v>
@@ -7218,7 +7226,7 @@
     </row>
     <row r="116" spans="1:14">
       <c r="A116" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B116" t="s">
         <v>7</v>
@@ -7262,7 +7270,7 @@
     </row>
     <row r="117" spans="1:14">
       <c r="A117" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B117" t="s">
         <v>7</v>
@@ -7306,7 +7314,7 @@
     </row>
     <row r="118" spans="1:14">
       <c r="A118" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B118" t="s">
         <v>7</v>
@@ -7350,7 +7358,7 @@
     </row>
     <row r="119" spans="1:14">
       <c r="A119" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B119" t="s">
         <v>7</v>
@@ -7394,7 +7402,7 @@
     </row>
     <row r="120" spans="1:14">
       <c r="A120" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B120" t="s">
         <v>7</v>
@@ -7438,7 +7446,7 @@
     </row>
     <row r="121" spans="1:14">
       <c r="A121" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B121" t="s">
         <v>7</v>
@@ -7482,43 +7490,43 @@
     </row>
     <row r="122" spans="1:14">
       <c r="A122" t="s">
+        <v>257</v>
+      </c>
+      <c r="B122" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122" t="s">
+        <v>9</v>
+      </c>
+      <c r="E122" t="s">
+        <v>10</v>
+      </c>
+      <c r="F122" t="s">
         <v>258</v>
       </c>
-      <c r="B122" t="s">
-        <v>7</v>
-      </c>
-      <c r="C122" t="s">
-        <v>8</v>
-      </c>
-      <c r="D122" t="s">
-        <v>9</v>
-      </c>
-      <c r="E122" t="s">
-        <v>10</v>
-      </c>
-      <c r="F122" t="s">
+      <c r="G122" t="s">
         <v>259</v>
       </c>
-      <c r="G122" t="s">
+      <c r="H122" t="s">
         <v>260</v>
       </c>
-      <c r="H122" t="s">
+      <c r="I122" t="s">
         <v>261</v>
       </c>
-      <c r="I122" t="s">
+      <c r="J122" t="s">
         <v>262</v>
       </c>
-      <c r="J122" t="s">
+      <c r="K122" t="s">
         <v>263</v>
       </c>
-      <c r="K122" t="s">
+      <c r="L122" t="s">
         <v>264</v>
       </c>
-      <c r="L122" t="s">
+      <c r="M122" t="s">
         <v>265</v>
-      </c>
-      <c r="M122" t="s">
-        <v>266</v>
       </c>
       <c r="N122">
         <v>2019</v>
@@ -7526,7 +7534,7 @@
     </row>
     <row r="123" spans="1:14">
       <c r="A123" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B123" t="s">
         <v>7</v>
@@ -7570,7 +7578,7 @@
     </row>
     <row r="124" spans="1:14">
       <c r="A124" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B124" t="s">
         <v>7</v>
@@ -7594,19 +7602,19 @@
         <v>886339</v>
       </c>
       <c r="I124" t="s">
+        <v>268</v>
+      </c>
+      <c r="J124" t="s">
         <v>269</v>
       </c>
-      <c r="J124" t="s">
+      <c r="K124" t="s">
         <v>270</v>
       </c>
-      <c r="K124" t="s">
+      <c r="L124" t="s">
         <v>271</v>
       </c>
-      <c r="L124" t="s">
+      <c r="M124" t="s">
         <v>272</v>
-      </c>
-      <c r="M124" t="s">
-        <v>273</v>
       </c>
       <c r="N124">
         <v>2019</v>
@@ -7614,7 +7622,7 @@
     </row>
     <row r="125" spans="1:14">
       <c r="A125" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B125" t="s">
         <v>7</v>
@@ -7658,7 +7666,7 @@
     </row>
     <row r="126" spans="1:14">
       <c r="A126" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B126" t="s">
         <v>7</v>
@@ -7702,7 +7710,7 @@
     </row>
     <row r="127" spans="1:14">
       <c r="A127" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B127" t="s">
         <v>7</v>
@@ -7746,7 +7754,7 @@
     </row>
     <row r="128" spans="1:14">
       <c r="A128" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B128" t="s">
         <v>7</v>
@@ -7790,7 +7798,7 @@
     </row>
     <row r="129" spans="1:14">
       <c r="A129" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B129" t="s">
         <v>7</v>
@@ -7834,7 +7842,7 @@
     </row>
     <row r="130" spans="1:14">
       <c r="A130" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B130" t="s">
         <v>7</v>
@@ -7878,7 +7886,7 @@
     </row>
     <row r="131" spans="1:14">
       <c r="A131" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B131" t="s">
         <v>7</v>
@@ -7922,7 +7930,7 @@
     </row>
     <row r="132" spans="1:14">
       <c r="A132" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B132" t="s">
         <v>7</v>
@@ -7943,22 +7951,22 @@
         <v>276114</v>
       </c>
       <c r="H132" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I132" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J132" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K132" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L132" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M132" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N132">
         <v>2020</v>
@@ -7966,43 +7974,43 @@
     </row>
     <row r="133" spans="1:14">
       <c r="A133" t="s">
+        <v>281</v>
+      </c>
+      <c r="B133" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133" t="s">
+        <v>9</v>
+      </c>
+      <c r="E133" t="s">
+        <v>10</v>
+      </c>
+      <c r="F133" t="s">
         <v>282</v>
       </c>
-      <c r="B133" t="s">
-        <v>7</v>
-      </c>
-      <c r="C133" t="s">
-        <v>8</v>
-      </c>
-      <c r="D133" t="s">
-        <v>9</v>
-      </c>
-      <c r="E133" t="s">
-        <v>10</v>
-      </c>
-      <c r="F133" t="s">
+      <c r="G133" t="s">
         <v>283</v>
       </c>
-      <c r="G133" t="s">
+      <c r="H133" t="s">
         <v>284</v>
       </c>
-      <c r="H133" t="s">
+      <c r="I133" t="s">
         <v>285</v>
       </c>
-      <c r="I133" t="s">
+      <c r="J133" t="s">
         <v>286</v>
       </c>
-      <c r="J133" t="s">
+      <c r="K133" t="s">
         <v>287</v>
       </c>
-      <c r="K133" t="s">
+      <c r="L133" t="s">
         <v>288</v>
       </c>
-      <c r="L133" t="s">
+      <c r="M133" t="s">
         <v>289</v>
-      </c>
-      <c r="M133" t="s">
-        <v>290</v>
       </c>
       <c r="N133">
         <v>2019</v>
@@ -8010,7 +8018,7 @@
     </row>
     <row r="134" spans="1:14">
       <c r="A134" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B134" t="s">
         <v>7</v>
@@ -8054,7 +8062,7 @@
     </row>
     <row r="135" spans="1:14">
       <c r="A135" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B135" t="s">
         <v>7</v>
@@ -8098,7 +8106,7 @@
     </row>
     <row r="136" spans="1:14">
       <c r="A136" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B136" t="s">
         <v>7</v>
@@ -8142,7 +8150,7 @@
     </row>
     <row r="137" spans="1:14">
       <c r="A137" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B137" t="s">
         <v>7</v>
@@ -8186,7 +8194,7 @@
     </row>
     <row r="138" spans="1:14">
       <c r="A138" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B138" t="s">
         <v>7</v>
@@ -8230,7 +8238,7 @@
     </row>
     <row r="139" spans="1:14">
       <c r="A139" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B139" t="s">
         <v>7</v>
@@ -8274,7 +8282,7 @@
     </row>
     <row r="140" spans="1:14">
       <c r="A140" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B140" t="s">
         <v>7</v>
@@ -8318,7 +8326,7 @@
     </row>
     <row r="141" spans="1:14">
       <c r="A141" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B141" t="s">
         <v>7</v>
@@ -8362,7 +8370,7 @@
     </row>
     <row r="142" spans="1:14">
       <c r="A142" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B142" t="s">
         <v>7</v>
@@ -8406,7 +8414,7 @@
     </row>
     <row r="143" spans="1:14">
       <c r="A143" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B143" t="s">
         <v>7</v>
@@ -8450,43 +8458,43 @@
     </row>
     <row r="144" spans="1:14">
       <c r="A144" t="s">
+        <v>300</v>
+      </c>
+      <c r="B144" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144" t="s">
+        <v>8</v>
+      </c>
+      <c r="D144" t="s">
+        <v>9</v>
+      </c>
+      <c r="E144" t="s">
+        <v>10</v>
+      </c>
+      <c r="F144" t="s">
         <v>301</v>
       </c>
-      <c r="B144" t="s">
-        <v>7</v>
-      </c>
-      <c r="C144" t="s">
-        <v>8</v>
-      </c>
-      <c r="D144" t="s">
-        <v>9</v>
-      </c>
-      <c r="E144" t="s">
-        <v>10</v>
-      </c>
-      <c r="F144" t="s">
+      <c r="G144" t="s">
         <v>302</v>
       </c>
-      <c r="G144" t="s">
+      <c r="H144" t="s">
         <v>303</v>
       </c>
-      <c r="H144" t="s">
+      <c r="I144" t="s">
         <v>304</v>
       </c>
-      <c r="I144" t="s">
+      <c r="J144" t="s">
         <v>305</v>
       </c>
-      <c r="J144" t="s">
+      <c r="K144" t="s">
         <v>306</v>
       </c>
-      <c r="K144" t="s">
+      <c r="L144" t="s">
         <v>307</v>
       </c>
-      <c r="L144" t="s">
+      <c r="M144" t="s">
         <v>308</v>
-      </c>
-      <c r="M144" t="s">
-        <v>309</v>
       </c>
       <c r="N144">
         <v>2019</v>
@@ -8494,7 +8502,7 @@
     </row>
     <row r="145" spans="1:14">
       <c r="A145" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B145" t="s">
         <v>7</v>
@@ -8538,43 +8546,43 @@
     </row>
     <row r="146" spans="1:14">
       <c r="A146" t="s">
+        <v>310</v>
+      </c>
+      <c r="B146" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146" t="s">
+        <v>8</v>
+      </c>
+      <c r="D146" t="s">
+        <v>9</v>
+      </c>
+      <c r="E146" t="s">
+        <v>10</v>
+      </c>
+      <c r="F146" t="s">
         <v>311</v>
       </c>
-      <c r="B146" t="s">
-        <v>7</v>
-      </c>
-      <c r="C146" t="s">
-        <v>8</v>
-      </c>
-      <c r="D146" t="s">
-        <v>9</v>
-      </c>
-      <c r="E146" t="s">
-        <v>10</v>
-      </c>
-      <c r="F146" t="s">
+      <c r="G146" t="s">
         <v>312</v>
       </c>
-      <c r="G146" t="s">
+      <c r="H146" t="s">
         <v>313</v>
       </c>
-      <c r="H146" t="s">
+      <c r="I146" t="s">
         <v>314</v>
       </c>
-      <c r="I146" t="s">
+      <c r="J146" t="s">
         <v>315</v>
       </c>
-      <c r="J146" t="s">
+      <c r="K146" t="s">
         <v>316</v>
       </c>
-      <c r="K146" t="s">
+      <c r="L146" t="s">
         <v>317</v>
       </c>
-      <c r="L146" t="s">
+      <c r="M146" t="s">
         <v>318</v>
-      </c>
-      <c r="M146" t="s">
-        <v>319</v>
       </c>
       <c r="N146">
         <v>2019</v>
@@ -8582,7 +8590,7 @@
     </row>
     <row r="147" spans="1:14">
       <c r="A147" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B147" t="s">
         <v>7</v>
@@ -8626,43 +8634,43 @@
     </row>
     <row r="148" spans="1:14">
       <c r="A148" t="s">
+        <v>320</v>
+      </c>
+      <c r="B148" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148" t="s">
+        <v>8</v>
+      </c>
+      <c r="D148" t="s">
+        <v>9</v>
+      </c>
+      <c r="E148" t="s">
+        <v>10</v>
+      </c>
+      <c r="F148" t="s">
         <v>321</v>
       </c>
-      <c r="B148" t="s">
-        <v>7</v>
-      </c>
-      <c r="C148" t="s">
-        <v>8</v>
-      </c>
-      <c r="D148" t="s">
-        <v>9</v>
-      </c>
-      <c r="E148" t="s">
-        <v>10</v>
-      </c>
-      <c r="F148" t="s">
+      <c r="G148" t="s">
         <v>322</v>
       </c>
-      <c r="G148" t="s">
+      <c r="H148" t="s">
         <v>323</v>
       </c>
-      <c r="H148" t="s">
+      <c r="I148" t="s">
         <v>324</v>
       </c>
-      <c r="I148" t="s">
+      <c r="J148" t="s">
         <v>325</v>
       </c>
-      <c r="J148" t="s">
+      <c r="K148" t="s">
         <v>326</v>
       </c>
-      <c r="K148" t="s">
+      <c r="L148" t="s">
         <v>327</v>
       </c>
-      <c r="L148" t="s">
+      <c r="M148" t="s">
         <v>328</v>
-      </c>
-      <c r="M148" t="s">
-        <v>329</v>
       </c>
       <c r="N148">
         <v>2019</v>
@@ -8670,7 +8678,7 @@
     </row>
     <row r="149" spans="1:14">
       <c r="A149" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B149" t="s">
         <v>7</v>
@@ -8714,7 +8722,7 @@
     </row>
     <row r="150" spans="1:14">
       <c r="A150" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B150" t="s">
         <v>7</v>
@@ -8758,7 +8766,7 @@
     </row>
     <row r="151" spans="1:14">
       <c r="A151" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B151" t="s">
         <v>7</v>
@@ -8802,7 +8810,7 @@
     </row>
     <row r="152" spans="1:14">
       <c r="A152" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B152" t="s">
         <v>7</v>
@@ -8846,7 +8854,7 @@
     </row>
     <row r="153" spans="1:14">
       <c r="A153" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B153" t="s">
         <v>7</v>
@@ -8890,7 +8898,7 @@
     </row>
     <row r="154" spans="1:14">
       <c r="A154" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B154" t="s">
         <v>7</v>
@@ -8934,7 +8942,7 @@
     </row>
     <row r="155" spans="1:14">
       <c r="A155" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B155" t="s">
         <v>7</v>
@@ -8978,7 +8986,7 @@
     </row>
     <row r="156" spans="1:14">
       <c r="A156" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B156" t="s">
         <v>7</v>
@@ -9022,7 +9030,7 @@
     </row>
     <row r="157" spans="1:14">
       <c r="A157" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B157" t="s">
         <v>7</v>
@@ -9066,7 +9074,7 @@
     </row>
     <row r="158" spans="1:14">
       <c r="A158" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B158" t="s">
         <v>7</v>
@@ -9110,7 +9118,7 @@
     </row>
     <row r="159" spans="1:14">
       <c r="A159" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B159" t="s">
         <v>7</v>
@@ -9154,7 +9162,7 @@
     </row>
     <row r="160" spans="1:14">
       <c r="A160" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B160" t="s">
         <v>7</v>
@@ -9198,43 +9206,43 @@
     </row>
     <row r="161" spans="1:14">
       <c r="A161" t="s">
+        <v>341</v>
+      </c>
+      <c r="B161" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161" t="s">
+        <v>8</v>
+      </c>
+      <c r="D161" t="s">
+        <v>9</v>
+      </c>
+      <c r="E161" t="s">
+        <v>10</v>
+      </c>
+      <c r="F161" t="s">
         <v>342</v>
       </c>
-      <c r="B161" t="s">
-        <v>7</v>
-      </c>
-      <c r="C161" t="s">
-        <v>8</v>
-      </c>
-      <c r="D161" t="s">
-        <v>9</v>
-      </c>
-      <c r="E161" t="s">
-        <v>10</v>
-      </c>
-      <c r="F161" t="s">
+      <c r="G161" t="s">
         <v>343</v>
       </c>
-      <c r="G161" t="s">
+      <c r="H161" t="s">
         <v>344</v>
       </c>
-      <c r="H161" t="s">
+      <c r="I161" t="s">
         <v>345</v>
       </c>
-      <c r="I161" t="s">
+      <c r="J161" t="s">
         <v>346</v>
       </c>
-      <c r="J161" t="s">
+      <c r="K161" t="s">
         <v>347</v>
       </c>
-      <c r="K161" t="s">
+      <c r="L161" t="s">
         <v>348</v>
       </c>
-      <c r="L161" t="s">
+      <c r="M161" t="s">
         <v>349</v>
-      </c>
-      <c r="M161" t="s">
-        <v>350</v>
       </c>
       <c r="N161">
         <v>2019</v>
@@ -9242,7 +9250,7 @@
     </row>
     <row r="162" spans="1:14">
       <c r="A162" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B162" t="s">
         <v>7</v>
@@ -9286,7 +9294,7 @@
     </row>
     <row r="163" spans="1:14">
       <c r="A163" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B163" t="s">
         <v>7</v>
@@ -9307,10 +9315,10 @@
         <v>1066</v>
       </c>
       <c r="H163" t="s">
+        <v>352</v>
+      </c>
+      <c r="I163" t="s">
         <v>353</v>
-      </c>
-      <c r="I163" t="s">
-        <v>354</v>
       </c>
       <c r="J163" s="1">
         <v>1036</v>
@@ -9330,7 +9338,7 @@
     </row>
     <row r="164" spans="1:14">
       <c r="A164" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B164" t="s">
         <v>7</v>
@@ -9374,40 +9382,40 @@
     </row>
     <row r="165" spans="1:14">
       <c r="A165" t="s">
+        <v>355</v>
+      </c>
+      <c r="B165" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165" t="s">
+        <v>8</v>
+      </c>
+      <c r="D165" t="s">
+        <v>9</v>
+      </c>
+      <c r="E165" t="s">
+        <v>10</v>
+      </c>
+      <c r="F165" t="s">
         <v>356</v>
       </c>
-      <c r="B165" t="s">
-        <v>7</v>
-      </c>
-      <c r="C165" t="s">
-        <v>8</v>
-      </c>
-      <c r="D165" t="s">
-        <v>9</v>
-      </c>
-      <c r="E165" t="s">
-        <v>10</v>
-      </c>
-      <c r="F165" t="s">
+      <c r="G165" t="s">
         <v>357</v>
       </c>
-      <c r="G165" t="s">
+      <c r="H165" t="s">
         <v>358</v>
       </c>
-      <c r="H165" t="s">
+      <c r="I165" t="s">
         <v>359</v>
       </c>
-      <c r="I165" t="s">
+      <c r="J165" t="s">
         <v>360</v>
       </c>
-      <c r="J165" t="s">
+      <c r="K165" t="s">
         <v>361</v>
       </c>
-      <c r="K165" t="s">
+      <c r="L165" t="s">
         <v>362</v>
-      </c>
-      <c r="L165" t="s">
-        <v>363</v>
       </c>
       <c r="M165" s="1">
         <v>1002</v>
@@ -9418,7 +9426,7 @@
     </row>
     <row r="166" spans="1:14">
       <c r="A166" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B166" t="s">
         <v>7</v>
@@ -9462,7 +9470,7 @@
     </row>
     <row r="167" spans="1:14">
       <c r="A167" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B167" t="s">
         <v>7</v>
@@ -9506,7 +9514,7 @@
     </row>
     <row r="168" spans="1:14">
       <c r="A168" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B168" t="s">
         <v>7</v>
@@ -9550,7 +9558,7 @@
     </row>
     <row r="169" spans="1:14">
       <c r="A169" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B169" t="s">
         <v>7</v>
@@ -9594,7 +9602,7 @@
     </row>
     <row r="170" spans="1:14">
       <c r="A170" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B170" t="s">
         <v>7</v>
@@ -9609,28 +9617,28 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G170" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H170" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I170" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J170" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K170" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L170" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M170" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N170">
         <v>2010</v>
@@ -9638,7 +9646,7 @@
     </row>
     <row r="171" spans="1:14">
       <c r="A171" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B171" t="s">
         <v>7</v>
@@ -9682,7 +9690,7 @@
     </row>
     <row r="172" spans="1:14">
       <c r="A172" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B172" t="s">
         <v>7</v>
@@ -9726,7 +9734,7 @@
     </row>
     <row r="173" spans="1:14">
       <c r="A173" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B173" t="s">
         <v>7</v>
@@ -9770,7 +9778,7 @@
     </row>
     <row r="174" spans="1:14">
       <c r="A174" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B174" t="s">
         <v>7</v>
@@ -9814,7 +9822,7 @@
     </row>
     <row r="175" spans="1:14">
       <c r="A175" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B175" t="s">
         <v>7</v>
@@ -9858,7 +9866,7 @@
     </row>
     <row r="176" spans="1:14">
       <c r="A176" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B176" t="s">
         <v>7</v>
@@ -9902,43 +9910,43 @@
     </row>
     <row r="177" spans="1:14">
       <c r="A177" t="s">
+        <v>374</v>
+      </c>
+      <c r="B177" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177" t="s">
+        <v>8</v>
+      </c>
+      <c r="D177" t="s">
+        <v>9</v>
+      </c>
+      <c r="E177" t="s">
+        <v>10</v>
+      </c>
+      <c r="F177" t="s">
         <v>375</v>
       </c>
-      <c r="B177" t="s">
-        <v>7</v>
-      </c>
-      <c r="C177" t="s">
-        <v>8</v>
-      </c>
-      <c r="D177" t="s">
-        <v>9</v>
-      </c>
-      <c r="E177" t="s">
-        <v>10</v>
-      </c>
-      <c r="F177" t="s">
+      <c r="G177" t="s">
         <v>376</v>
       </c>
-      <c r="G177" t="s">
+      <c r="H177" t="s">
         <v>377</v>
       </c>
-      <c r="H177" t="s">
+      <c r="I177" t="s">
         <v>378</v>
-      </c>
-      <c r="I177" t="s">
-        <v>379</v>
       </c>
       <c r="J177" t="s">
         <v>90</v>
       </c>
       <c r="K177" t="s">
+        <v>379</v>
+      </c>
+      <c r="L177" t="s">
         <v>380</v>
       </c>
-      <c r="L177" t="s">
+      <c r="M177" t="s">
         <v>381</v>
-      </c>
-      <c r="M177" t="s">
-        <v>382</v>
       </c>
       <c r="N177">
         <v>2019</v>
@@ -9946,7 +9954,7 @@
     </row>
     <row r="178" spans="1:14">
       <c r="A178" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B178" t="s">
         <v>7</v>
@@ -9990,7 +9998,7 @@
     </row>
     <row r="179" spans="1:14">
       <c r="A179" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B179" t="s">
         <v>7</v>
@@ -10034,7 +10042,7 @@
     </row>
     <row r="180" spans="1:14">
       <c r="A180" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B180" t="s">
         <v>7</v>
@@ -10078,7 +10086,7 @@
     </row>
     <row r="181" spans="1:14">
       <c r="A181" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B181" t="s">
         <v>7</v>
@@ -10122,43 +10130,43 @@
     </row>
     <row r="182" spans="1:14">
       <c r="A182" t="s">
+        <v>386</v>
+      </c>
+      <c r="B182" t="s">
+        <v>7</v>
+      </c>
+      <c r="C182" t="s">
+        <v>8</v>
+      </c>
+      <c r="D182" t="s">
+        <v>9</v>
+      </c>
+      <c r="E182" t="s">
+        <v>10</v>
+      </c>
+      <c r="F182" t="s">
         <v>387</v>
       </c>
-      <c r="B182" t="s">
-        <v>7</v>
-      </c>
-      <c r="C182" t="s">
-        <v>8</v>
-      </c>
-      <c r="D182" t="s">
-        <v>9</v>
-      </c>
-      <c r="E182" t="s">
-        <v>10</v>
-      </c>
-      <c r="F182" t="s">
+      <c r="G182" t="s">
         <v>388</v>
       </c>
-      <c r="G182" t="s">
+      <c r="H182" t="s">
         <v>389</v>
       </c>
-      <c r="H182" t="s">
+      <c r="I182" t="s">
         <v>390</v>
       </c>
-      <c r="I182" t="s">
+      <c r="J182" t="s">
         <v>391</v>
       </c>
-      <c r="J182" t="s">
+      <c r="K182" t="s">
         <v>392</v>
       </c>
-      <c r="K182" t="s">
+      <c r="L182" t="s">
         <v>393</v>
       </c>
-      <c r="L182" t="s">
+      <c r="M182" t="s">
         <v>394</v>
-      </c>
-      <c r="M182" t="s">
-        <v>395</v>
       </c>
       <c r="N182">
         <v>2018</v>
@@ -10166,7 +10174,7 @@
     </row>
     <row r="183" spans="1:14">
       <c r="A183" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B183" t="s">
         <v>7</v>
@@ -10210,7 +10218,7 @@
     </row>
     <row r="184" spans="1:14">
       <c r="A184" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B184" t="s">
         <v>7</v>
@@ -10254,7 +10262,7 @@
     </row>
     <row r="185" spans="1:14">
       <c r="A185" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B185" t="s">
         <v>7</v>
@@ -10298,43 +10306,43 @@
     </row>
     <row r="186" spans="1:14">
       <c r="A186" t="s">
+        <v>398</v>
+      </c>
+      <c r="B186" t="s">
+        <v>7</v>
+      </c>
+      <c r="C186" t="s">
+        <v>8</v>
+      </c>
+      <c r="D186" t="s">
+        <v>9</v>
+      </c>
+      <c r="E186" t="s">
+        <v>10</v>
+      </c>
+      <c r="F186" t="s">
         <v>399</v>
       </c>
-      <c r="B186" t="s">
-        <v>7</v>
-      </c>
-      <c r="C186" t="s">
-        <v>8</v>
-      </c>
-      <c r="D186" t="s">
-        <v>9</v>
-      </c>
-      <c r="E186" t="s">
-        <v>10</v>
-      </c>
-      <c r="F186" t="s">
+      <c r="G186" t="s">
         <v>400</v>
       </c>
-      <c r="G186" t="s">
+      <c r="H186" t="s">
         <v>401</v>
       </c>
-      <c r="H186" t="s">
+      <c r="I186" t="s">
         <v>402</v>
       </c>
-      <c r="I186" t="s">
+      <c r="J186" t="s">
         <v>403</v>
       </c>
-      <c r="J186" t="s">
+      <c r="K186" t="s">
         <v>404</v>
       </c>
-      <c r="K186" t="s">
+      <c r="L186" t="s">
         <v>405</v>
       </c>
-      <c r="L186" t="s">
+      <c r="M186" t="s">
         <v>406</v>
-      </c>
-      <c r="M186" t="s">
-        <v>407</v>
       </c>
       <c r="N186">
         <v>2019</v>
@@ -10342,43 +10350,43 @@
     </row>
     <row r="187" spans="1:14">
       <c r="A187" t="s">
+        <v>430</v>
+      </c>
+      <c r="B187" t="s">
+        <v>7</v>
+      </c>
+      <c r="C187" t="s">
+        <v>8</v>
+      </c>
+      <c r="D187" t="s">
+        <v>9</v>
+      </c>
+      <c r="E187" t="s">
+        <v>10</v>
+      </c>
+      <c r="F187" t="s">
+        <v>407</v>
+      </c>
+      <c r="G187" t="s">
         <v>408</v>
       </c>
-      <c r="B187" t="s">
-        <v>7</v>
-      </c>
-      <c r="C187" t="s">
-        <v>8</v>
-      </c>
-      <c r="D187" t="s">
-        <v>9</v>
-      </c>
-      <c r="E187" t="s">
-        <v>10</v>
-      </c>
-      <c r="F187" t="s">
+      <c r="H187" t="s">
         <v>409</v>
       </c>
-      <c r="G187" t="s">
+      <c r="I187" t="s">
         <v>410</v>
       </c>
-      <c r="H187" t="s">
+      <c r="J187" t="s">
         <v>411</v>
       </c>
-      <c r="I187" t="s">
+      <c r="K187" t="s">
         <v>412</v>
       </c>
-      <c r="J187" t="s">
+      <c r="L187" t="s">
         <v>413</v>
       </c>
-      <c r="K187" t="s">
+      <c r="M187" t="s">
         <v>414</v>
-      </c>
-      <c r="L187" t="s">
-        <v>415</v>
-      </c>
-      <c r="M187" t="s">
-        <v>416</v>
       </c>
       <c r="N187">
         <v>2019</v>
@@ -10386,7 +10394,7 @@
     </row>
     <row r="188" spans="1:14">
       <c r="A188" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B188" t="s">
         <v>7</v>
@@ -10430,7 +10438,7 @@
     </row>
     <row r="189" spans="1:14">
       <c r="A189" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B189" t="s">
         <v>7</v>
@@ -10474,34 +10482,34 @@
     </row>
     <row r="190" spans="1:14">
       <c r="A190" t="s">
+        <v>417</v>
+      </c>
+      <c r="B190" t="s">
+        <v>7</v>
+      </c>
+      <c r="C190" t="s">
+        <v>8</v>
+      </c>
+      <c r="D190" t="s">
+        <v>9</v>
+      </c>
+      <c r="E190" t="s">
+        <v>10</v>
+      </c>
+      <c r="F190" t="s">
+        <v>418</v>
+      </c>
+      <c r="G190" t="s">
         <v>419</v>
       </c>
-      <c r="B190" t="s">
-        <v>7</v>
-      </c>
-      <c r="C190" t="s">
-        <v>8</v>
-      </c>
-      <c r="D190" t="s">
-        <v>9</v>
-      </c>
-      <c r="E190" t="s">
-        <v>10</v>
-      </c>
-      <c r="F190" t="s">
+      <c r="H190" t="s">
         <v>420</v>
       </c>
-      <c r="G190" t="s">
+      <c r="I190" t="s">
         <v>421</v>
       </c>
-      <c r="H190" t="s">
+      <c r="J190" t="s">
         <v>422</v>
-      </c>
-      <c r="I190" t="s">
-        <v>423</v>
-      </c>
-      <c r="J190" t="s">
-        <v>424</v>
       </c>
       <c r="K190" s="1">
         <v>1023</v>
@@ -10518,7 +10526,7 @@
     </row>
     <row r="191" spans="1:14">
       <c r="A191" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B191" t="s">
         <v>7</v>
@@ -10548,13 +10556,13 @@
         <v>41561</v>
       </c>
       <c r="K191" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L191" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M191" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N191">
         <v>2018</v>
@@ -10562,7 +10570,7 @@
     </row>
     <row r="192" spans="1:14">
       <c r="A192" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B192" t="s">
         <v>7</v>
@@ -10606,7 +10614,7 @@
     </row>
     <row r="193" spans="1:14">
       <c r="A193" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B193" t="s">
         <v>7</v>
@@ -10650,7 +10658,7 @@
     </row>
     <row r="194" spans="1:14">
       <c r="A194" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B194" t="s">
         <v>7</v>
@@ -10694,7 +10702,7 @@
     </row>
     <row r="195" spans="1:14">
       <c r="A195" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B195" t="s">
         <v>7</v>
@@ -10738,7 +10746,7 @@
     </row>
     <row r="196" spans="1:14">
       <c r="A196" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B196" t="s">
         <v>7</v>
@@ -10782,7 +10790,7 @@
     </row>
     <row r="198" spans="1:14">
       <c r="A198" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
